--- a/data/trans_camb/DC-Edad-trans_camb.xlsx
+++ b/data/trans_camb/DC-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-2.790127297425536</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3.923096785082743</v>
+        <v>3.923096785082744</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-5.478131216064059</v>
@@ -655,7 +655,7 @@
         <v>-11.32375589163799</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.602360274543392</v>
+        <v>3.602360274543395</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-2.892101180255945</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.143200785697037</v>
+        <v>-2.890206409093286</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.201252561056617</v>
+        <v>-4.890830389066238</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.3956511486198628</v>
+        <v>-0.3492930695057841</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.50143342913158</v>
+        <v>-10.3930502574166</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-15.58567640413367</v>
+        <v>-15.8767011720236</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.073312675121607</v>
+        <v>-3.762253975965926</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-5.595359501184485</v>
+        <v>-5.620327405481132</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-9.656375510504029</v>
+        <v>-9.449097330554951</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.784607798527329</v>
+        <v>-0.7657724556811645</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.016153982465483</v>
+        <v>1.883114915396362</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.8334330705146697</v>
+        <v>-0.5963005820475453</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.651254451312809</v>
+        <v>9.576418372451371</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.4783039968323188</v>
+        <v>-0.1136766731020842</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-6.141198327918804</v>
+        <v>-6.675475945770904</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.47695476061584</v>
+        <v>11.01329292612901</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.04538740821627167</v>
+        <v>-0.1283752330466142</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-4.271348643919787</v>
+        <v>-4.241582997060314</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.445719134898527</v>
+        <v>7.947979102167898</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.6563342725928849</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.9228478131175614</v>
+        <v>0.9228478131175617</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.2588477072764067</v>
@@ -760,7 +760,7 @@
         <v>-0.5350598835078945</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1702154733195898</v>
+        <v>0.17021547331959</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.2318578593593893</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.554436325271499</v>
+        <v>-0.5502996424552646</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8780575729370732</v>
+        <v>-0.891360114099473</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1131436092125955</v>
+        <v>-0.1181047843140441</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4422579112530216</v>
+        <v>-0.448585468006418</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6705313896396811</v>
+        <v>-0.6643367233858083</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1328133337172139</v>
+        <v>-0.1564811428910054</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4077473286852612</v>
+        <v>-0.4110589452633298</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6907348813840661</v>
+        <v>-0.6925610165882938</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.05754902859973516</v>
+        <v>-0.06262736308642464</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7573009238978752</v>
+        <v>0.6118139865629624</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1606786728824036</v>
+        <v>-0.08450683750370677</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.915876099812491</v>
+        <v>3.076958779760592</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.01899286967115526</v>
+        <v>-0.007181568943133943</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.3424887346740527</v>
+        <v>-0.3476063521976031</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6159259384325446</v>
+        <v>0.5712003845405135</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.002998782037930294</v>
+        <v>-0.01161878018540399</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.3796304969345928</v>
+        <v>-0.3764265350304452</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7274854389806947</v>
+        <v>0.6931182527992842</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-7.577970525334179</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.941383059933952</v>
+        <v>1.941383059933954</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.727610439834966</v>
+        <v>-5.573989551654798</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.882936128663069</v>
+        <v>-7.799032466361814</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.454234213866548</v>
+        <v>-2.635774537580777</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-14.61019554107705</v>
+        <v>-15.08395935590621</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-16.23271299215797</v>
+        <v>-15.62025203572024</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.441012755956382</v>
+        <v>-4.196391322012048</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-9.048468991870656</v>
+        <v>-8.637855358635415</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-10.40840163679152</v>
+        <v>-9.99931393596199</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.516581866922281</v>
+        <v>-1.618615177021391</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.326537962372984</v>
+        <v>-0.1969899807695454</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.36773890555484</v>
+        <v>-2.362905024593815</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.608164150429368</v>
+        <v>5.695944634505653</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-5.451829188021607</v>
+        <v>-5.789993879486642</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-6.999031064243658</v>
+        <v>-6.830451557259279</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.767767721612406</v>
+        <v>5.96446020584272</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-3.88939536823285</v>
+        <v>-3.401351824656093</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-5.170995218115115</v>
+        <v>-4.528654865543901</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.318421197253498</v>
+        <v>5.149119224074184</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.4707348496460981</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.1205964921304823</v>
+        <v>0.1205964921304825</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.56136934267129</v>
+        <v>-0.5735640187846733</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7621038106829011</v>
+        <v>-0.7449645734969851</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2557702622062319</v>
+        <v>-0.2634101217493859</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5414434883177609</v>
+        <v>-0.5602107188152975</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5808157222410754</v>
+        <v>-0.5819758450663313</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1634763615353311</v>
+        <v>-0.1608096496255688</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5070433272821158</v>
+        <v>-0.4911224909433709</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5858718667040775</v>
+        <v>-0.5732670641624962</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.08990595409719979</v>
+        <v>-0.09757037068331238</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.0224954498623025</v>
+        <v>-0.02725237064728463</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2957111215146359</v>
+        <v>-0.2842316094526581</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7624749346939409</v>
+        <v>0.7669944243117804</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.2442207941427597</v>
+        <v>-0.2528557797365068</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.3067749454055808</v>
+        <v>-0.3046107672780521</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2601313342327672</v>
+        <v>0.2615088969895326</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2600787829403001</v>
+        <v>-0.2296484745914328</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.3397413766231412</v>
+        <v>-0.3150133287773756</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3635887852528937</v>
+        <v>0.3410764581051239</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-9.494029481155291</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.186367072909391</v>
+        <v>3.186367072909382</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.78539242407002</v>
+        <v>-11.75471532722174</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.69636376701164</v>
+        <v>-12.12513817862617</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.741833728156016</v>
+        <v>-6.419317268192836</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.999269171693191</v>
+        <v>-6.613309777717584</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-13.94047091633351</v>
+        <v>-14.34893841831006</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.987711183983161</v>
+        <v>3.825936452890353</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-7.956436143620523</v>
+        <v>-7.801813726174275</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-12.32558487427579</v>
+        <v>-12.4488992160491</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3037557290490274</v>
+        <v>0.3044524581347554</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-4.689202419523351</v>
+        <v>-4.759119691487506</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-4.72818350597016</v>
+        <v>-4.867308151472992</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.562409357337451</v>
+        <v>2.004090257363523</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.003770120437272</v>
+        <v>2.368066915703801</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-5.977530727243443</v>
+        <v>-6.127155085143793</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.8994851991154</v>
+        <v>12.96566976470687</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-2.245814200540504</v>
+        <v>-2.062064725231555</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-6.791637460004683</v>
+        <v>-6.709277251416776</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.313430969798143</v>
+        <v>6.319744734698694</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.4958333208150771</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.1664105815378432</v>
+        <v>0.1664105815378428</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6494937296527378</v>
+        <v>-0.671478519881019</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6796746637049941</v>
+        <v>-0.6843760849748028</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3247071414326705</v>
+        <v>-0.3648877855741107</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.285897955952382</v>
+        <v>-0.2637688046911508</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5680872636815354</v>
+        <v>-0.5812700665325191</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1572775292840196</v>
+        <v>0.1527794112885619</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3873026593904431</v>
+        <v>-0.381169257976156</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5924185306440448</v>
+        <v>-0.5919343268044613</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.01437417739129866</v>
+        <v>0.01421299378129947</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.3335690373244674</v>
+        <v>-0.3347067559459858</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.3500980775321919</v>
+        <v>-0.3612603218437799</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1891701544598867</v>
+        <v>0.1584024122434497</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.09626252674785683</v>
+        <v>0.1186335533438598</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.2925409571564056</v>
+        <v>-0.3068363802201669</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6509870175358151</v>
+        <v>0.6479969171179757</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.1206686347535856</v>
+        <v>-0.1108938980656277</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.3799304141636747</v>
+        <v>-0.3805481917220422</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3570515337498745</v>
+        <v>0.3611405548389809</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-11.2393877591251</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.324763620345918</v>
+        <v>2.324763620345913</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-6.720675307558547</v>
@@ -1297,7 +1297,7 @@
         <v>-10.71463459798949</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>9.899729177362188</v>
+        <v>9.899729177362182</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-8.939094378346402</v>
@@ -1306,7 +1306,7 @@
         <v>-10.95743726613327</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>6.302573774901981</v>
+        <v>6.302573774901987</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-15.85072957401824</v>
+        <v>-15.84383081945777</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-15.87665748505998</v>
+        <v>-15.83254107596805</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.869568045425086</v>
+        <v>-2.549307362307167</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-11.70523502950214</v>
+        <v>-12.05770729065118</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-15.72401100621262</v>
+        <v>-15.88654867315765</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.474590489860895</v>
+        <v>5.094002973028839</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-12.39435863607615</v>
+        <v>-12.52779309131465</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-13.937538298211</v>
+        <v>-14.39951247994867</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.012387335238053</v>
+        <v>3.003898775027892</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-7.251772722564928</v>
+        <v>-6.486233310959644</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-6.905626241767683</v>
+        <v>-6.890327072315328</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.074714671401718</v>
+        <v>6.890132182125807</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.299440802594344</v>
+        <v>-1.680770512969342</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-5.894764262057463</v>
+        <v>-5.813688859655449</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>14.83900962854671</v>
+        <v>14.51380214290603</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-5.571996479402111</v>
+        <v>-5.630936689740475</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-7.411226788013116</v>
+        <v>-7.449110787679576</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>10.07400993352022</v>
+        <v>9.488481974345374</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.5346512878402571</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1105876841496993</v>
+        <v>0.110587684149699</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.2431082332210305</v>
@@ -1402,7 +1402,7 @@
         <v>-0.3875824627023108</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3581047379224608</v>
+        <v>0.3581047379224607</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.3675292781435722</v>
@@ -1411,7 +1411,7 @@
         <v>-0.450513087598747</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2591292016725334</v>
+        <v>0.2591292016725337</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.666355874074211</v>
+        <v>-0.6670350538065446</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6684051174345178</v>
+        <v>-0.6587571218547205</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1141332535476034</v>
+        <v>-0.106749894261872</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.38598393712051</v>
+        <v>-0.3963816504071271</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5109942995211376</v>
+        <v>-0.5176418793044352</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1706468960118443</v>
+        <v>0.1557362827980407</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.474149618045622</v>
+        <v>-0.4807199633288752</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5361161585547576</v>
+        <v>-0.5455655590251214</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1138932779123936</v>
+        <v>0.1116041410145987</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.3683622741438387</v>
+        <v>-0.3559269601259693</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.366884230539002</v>
+        <v>-0.368418349588653</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3886130373820174</v>
+        <v>0.3685751648470007</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.04923292805245033</v>
+        <v>-0.06873691715530356</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.2289456385078069</v>
+        <v>-0.2352802644687674</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6071151073364435</v>
+        <v>0.5911024730539116</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.2501659076185856</v>
+        <v>-0.2450575148294398</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.3395081281148865</v>
+        <v>-0.3365996139227109</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.453348147832646</v>
+        <v>0.42173186684534</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-16.77445683307069</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-2.970910338848554</v>
+        <v>-2.970910338848559</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-1.710749686984819</v>
@@ -1511,7 +1511,7 @@
         <v>-5.93314437654007</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>13.47412945847326</v>
+        <v>13.47412945847327</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-9.968470654761278</v>
@@ -1520,7 +1520,7 @@
         <v>-11.24707805668902</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>5.261563038228051</v>
+        <v>5.261563038228045</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-23.86145890507962</v>
+        <v>-24.15002516301774</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-23.15439626658146</v>
+        <v>-23.1656469396842</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-8.730750066700169</v>
+        <v>-9.06196188443659</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-7.694896054386883</v>
+        <v>-7.698262965565812</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-12.09934695410215</v>
+        <v>-12.254675172385</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>7.789110264882114</v>
+        <v>8.082390529972088</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-14.30857275466865</v>
+        <v>-14.32970660037476</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-15.39028177640301</v>
+        <v>-15.21060876400172</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.429215125387156</v>
+        <v>1.265418386926116</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-13.13765631413316</v>
+        <v>-12.87131039110988</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-11.11714855264504</v>
+        <v>-11.09056465430102</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.497212729685616</v>
+        <v>3.46961900995004</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.785147719336178</v>
+        <v>5.043363568924503</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.5232378296552572</v>
+        <v>0.007154795615159812</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>18.70909701120679</v>
+        <v>18.68174673521159</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-5.736501260026651</v>
+        <v>-5.81704208572775</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-6.891289094122712</v>
+        <v>-6.980274002531839</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>9.494188584832369</v>
+        <v>9.221763463189243</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.5257194177041969</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.09310973636485427</v>
+        <v>-0.09310973636485445</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.05569731830016447</v>
@@ -1616,7 +1616,7 @@
         <v>-0.1931669100249355</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4386807041238799</v>
+        <v>0.4386807041238802</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.3184983550670192</v>
@@ -1625,7 +1625,7 @@
         <v>-0.3593505949335219</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.168109956962821</v>
+        <v>0.1681099569628208</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6847118069312381</v>
+        <v>-0.6933518617880979</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.644476142381493</v>
+        <v>-0.6439299488805986</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2482291067891808</v>
+        <v>-0.2518479070705647</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2266639836297505</v>
+        <v>-0.2294398981963401</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3525760444152557</v>
+        <v>-0.3614097054878325</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2219682906203884</v>
+        <v>0.2263800555290603</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.431596972562218</v>
+        <v>-0.4338079457411796</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4609700921679796</v>
+        <v>-0.4560673829827911</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.0430746059834714</v>
+        <v>0.03711639430508319</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.4546029866228208</v>
+        <v>-0.4551467993718827</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.381790073578096</v>
+        <v>-0.379420914165481</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.08814688608708082</v>
+        <v>0.1253451086384982</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1770906437568781</v>
+        <v>0.1826979893164239</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.0324657882374406</v>
+        <v>-0.0002226168251653437</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6928729162187499</v>
+        <v>0.684873640593977</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.2038967339982248</v>
+        <v>-0.1983933383576029</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.2344809410980617</v>
+        <v>-0.2411694178607486</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.334860663140936</v>
+        <v>0.3222748436317883</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
         <v>-14.60434965999936</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>4.806815263082948</v>
+        <v>4.806815263082953</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-14.07379550570939</v>
+        <v>-13.4203469551832</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-18.37344179121577</v>
+        <v>-18.5806303925092</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-4.173152914706366</v>
+        <v>-3.974972383578053</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-13.29283498630044</v>
+        <v>-14.10449090413716</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-23.88744246420492</v>
+        <v>-23.59525451824378</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1.040961382074577</v>
+        <v>1.685399896784513</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-11.60795444273797</v>
+        <v>-11.63473859862346</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-19.03378696266599</v>
+        <v>-19.2974066062243</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.3831404217187779</v>
+        <v>0.4526323855335149</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.4928852895276203</v>
+        <v>-0.1697067628730668</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-5.53964042574265</v>
+        <v>-5.145741147489778</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8.315060591291406</v>
+        <v>8.751999589243391</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.6987245862520417</v>
+        <v>-0.3747029086006819</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-10.11698734792883</v>
+        <v>-10.88050476288237</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>13.56334703124538</v>
+        <v>13.64050989754293</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-1.967394753593843</v>
+        <v>-1.857385848423582</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-9.575885789389025</v>
+        <v>-10.33626863129168</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>9.118410521341195</v>
+        <v>9.462013880296215</v>
       </c>
     </row>
     <row r="37">
@@ -1839,7 +1839,7 @@
         <v>-0.4193713758495614</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.1380301606893912</v>
+        <v>0.1380301606893913</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4446117516192205</v>
+        <v>-0.4287365541790996</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5845099795175381</v>
+        <v>-0.593316637661779</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1356739643655788</v>
+        <v>-0.1256029323558127</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3008634138371177</v>
+        <v>-0.3102877025323799</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.530660301770319</v>
+        <v>-0.5266718092834671</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.02372178412071363</v>
+        <v>0.03803290766176442</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3147052774286362</v>
+        <v>-0.3089013293553745</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.5142304241288657</v>
+        <v>-0.516965586005291</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.01026300853657517</v>
+        <v>0.0113501992053879</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.02053019039963223</v>
+        <v>0.000389551154504026</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.2295447615714298</v>
+        <v>-0.2160763597098179</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.3486797622836827</v>
+        <v>0.3773474651001608</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.01723959665309836</v>
+        <v>-0.005559587585865035</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.2691202930305813</v>
+        <v>-0.2782954023365136</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3682013824195623</v>
+        <v>0.3668078188447407</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.05976740126494839</v>
+        <v>-0.05656486430022973</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.3062015250013426</v>
+        <v>-0.3109693939185046</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.2883681780348435</v>
+        <v>0.3021042304799731</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>-4.745845537343474</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>22.48476744217859</v>
+        <v>22.48476744217858</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.8289596117293518</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-19.40546373182664</v>
+        <v>-20.33003713573962</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-22.12645847135549</v>
+        <v>-22.4754195908135</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.349499404744818</v>
+        <v>-2.862798570713627</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.577376587162544</v>
+        <v>-2.979950424801075</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-12.65454570965914</v>
+        <v>-13.1736448817689</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>15.9999347289296</v>
+        <v>16.12453171798735</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-6.582809889162965</v>
+        <v>-6.920888386790463</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-14.09855147498881</v>
+        <v>-14.15025137923946</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>10.49778612435859</v>
+        <v>10.39901837872715</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-2.654186277424464</v>
+        <v>-3.07493433616541</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-5.315900538684282</v>
+        <v>-5.770318291774232</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>13.04725066966843</v>
+        <v>13.376579488662</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>12.9197253901576</v>
+        <v>12.78155301569967</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.137907269801624</v>
+        <v>2.804238653375722</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>28.33452765292878</v>
+        <v>28.8432197559653</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.649780350933026</v>
+        <v>4.802095507464588</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-3.028675232387759</v>
+        <v>-2.82867999348068</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>20.54496018022562</v>
+        <v>20.27891738870878</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>-0.127389374260179</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.6035427053633321</v>
+        <v>0.6035427053633318</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.02237526775642162</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4749851447488046</v>
+        <v>-0.4868832229274621</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5294621281025454</v>
+        <v>-0.5430376823285189</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.05947064459561584</v>
+        <v>-0.07339065920515825</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.05673823249983839</v>
+        <v>-0.07071984081714955</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3020768617902321</v>
+        <v>-0.3157038436484461</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.382692188563423</v>
+        <v>0.3853967608209651</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.161257038328193</v>
+        <v>-0.1768285537749482</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.3490058393877918</v>
+        <v>-0.3530922581471809</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2613850377726816</v>
+        <v>0.2546752223699605</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.06851100440518247</v>
+        <v>-0.0865389579384821</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.1684497294061667</v>
+        <v>-0.1835040659146384</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.4204129590174114</v>
+        <v>0.4216838588330504</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3947191640752865</v>
+        <v>0.3965760072513325</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.09474905305322637</v>
+        <v>0.08197194055626619</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.8628279013628585</v>
+        <v>0.8856227066297321</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1359243103644314</v>
+        <v>0.142447532808208</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.08707987904211802</v>
+        <v>-0.08631778416200037</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.6214134721259585</v>
+        <v>0.6079884307956311</v>
       </c>
     </row>
     <row r="46">
@@ -2162,7 +2162,7 @@
         <v>-8.74668258825022</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>7.581607385470305</v>
+        <v>7.581607385470293</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-8.811196017345695</v>
+        <v>-8.744992322661719</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-9.643786985946285</v>
+        <v>-9.729095140985129</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1.788315239967711</v>
+        <v>1.972637451461936</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-5.962051817301654</v>
+        <v>-6.117382413531567</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-11.43799233125297</v>
+        <v>-11.59174476622671</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>8.802155864604238</v>
+        <v>8.698699506423445</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-6.923503518362446</v>
+        <v>-6.906184658016675</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-10.13807224077687</v>
+        <v>-10.01470498538617</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>6.065745690259326</v>
+        <v>6.162400892359519</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-5.464767750458675</v>
+        <v>-5.459635944153502</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-6.334922765548236</v>
+        <v>-6.430062522576777</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>5.711502379686655</v>
+        <v>5.919297247321068</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-2.025411250731</v>
+        <v>-1.92100876555956</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-7.463779136000966</v>
+        <v>-7.385493548163424</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>13.02498437629194</v>
+        <v>12.76461255091924</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-4.295704112568412</v>
+        <v>-4.227704104329398</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-7.357381569229762</v>
+        <v>-7.406845568813337</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>9.037809366919923</v>
+        <v>9.026938854136453</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>-0.3406892328957377</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3914225553074514</v>
+        <v>0.3914225553074512</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.2438211075025837</v>
@@ -2267,7 +2267,7 @@
         <v>-0.3841782708122352</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.3330049748506923</v>
+        <v>0.3330049748506918</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4785833146281317</v>
+        <v>-0.4708868111291492</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.5267561442356955</v>
+        <v>-0.5273644106645429</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.1007766087303676</v>
+        <v>0.105497566070118</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.2070974947300515</v>
+        <v>-0.212764751244352</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3956077762046524</v>
+        <v>-0.4021671214261746</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3048767814529256</v>
+        <v>0.2988697157101902</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.2978903148338863</v>
+        <v>-0.2974420882755473</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.4301416400380695</v>
+        <v>-0.4276621827844961</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.2574259058452115</v>
+        <v>0.2642030473892644</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.3316170233133319</v>
+        <v>-0.3244797567866202</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.3853029419033466</v>
+        <v>-0.3865135453880747</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.3440529836096179</v>
+        <v>0.3601589898020188</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.07656519868722002</v>
+        <v>-0.07150168555962598</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.2790051658375281</v>
+        <v>-0.274543439082097</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.4905729443771289</v>
+        <v>0.4768547742591303</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.1943330837005847</v>
+        <v>-0.192509540272443</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.3316628295830993</v>
+        <v>-0.3354408538469193</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.4117684511717784</v>
+        <v>0.4133457715495468</v>
       </c>
     </row>
     <row r="52">
